--- a/Employee_Form/ExcelFiles/Karunakaran K.xlsx
+++ b/Employee_Form/ExcelFiles/Karunakaran K.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karuna\Employee_Form\Employee_Form\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AEIS LAPTOP Abhay\Downloads\Employee_Form\Employee_Form\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Age &amp; DOB</t>
+  </si>
+  <si>
+    <t>Permanent Address</t>
+  </si>
+  <si>
+    <t>Personal No</t>
+  </si>
+  <si>
+    <t>Alternate No</t>
+  </si>
+  <si>
+    <t>Father Name</t>
+  </si>
+  <si>
+    <t>Blood Group</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>Local Contact Person Name &amp; number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Contact No </t>
+  </si>
+  <si>
+    <t>Local Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominee Details
+Name
+Date Of Birth
+Relation
+Phone Number: Address
+*(For insurance purpose)
+</t>
+  </si>
+  <si>
     <t>Karunakaran K</t>
+  </si>
+  <si>
+    <t>Sivagangai</t>
+  </si>
+  <si>
+    <t>Kandeeban K</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>traine003@ataritech.com</t>
+  </si>
+  <si>
+    <t>Manikandan S
+6382473020</t>
+  </si>
+  <si>
+    <t>Neeladri Nagar</t>
+  </si>
+  <si>
+    <t>Declaration: I,______________________, hereby declare that the details furnished above are true and 
+correct to the best of my knowledge and belief and I undertake to inform you of any changes therein, 
+immediately.</t>
   </si>
   <si>
     <t>Signature :</t>
@@ -44,6 +107,16 @@
     <t>Ataritech Effective Industrial Solutions (OPC) Pvt Ltd
 49/1 8 th Cross Venkatapura Koramangala Bangalore, Karnataka, 560034, India 
 Works: No.20, Shantipura main road, Electronic city phase 2, Bangalore, KA, 560100</t>
+  </si>
+  <si>
+    <t>23  &amp; 02-10-2003</t>
+  </si>
+  <si>
+    <t>Kandeeban K
+4/16/1963 12:00:00 AM
+System.Windows.Controls.ComboBoxItem: Mother
+9786326896
+Sivagangai</t>
   </si>
 </sst>
 </file>
@@ -87,8 +160,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -383,17 +459,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -403,90 +479,156 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6382475002</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>7639250813</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9786326896</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C14"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
